--- a/aset/template_import_mitra/templateMitra.xlsx
+++ b/aset/template_import_mitra/templateMitra.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evira\aset\template_import_mitra\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE959609-2C21-4ED2-A380-99BBF1DD9A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Penjelasan Kode" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>NIK</t>
   </si>
@@ -24,23 +30,160 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>(3)</t>
+    <t>Kode Kec</t>
+  </si>
+  <si>
+    <t>Kode Desa</t>
+  </si>
+  <si>
+    <t>Alamat Detail</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Status Perkawinan</t>
+  </si>
+  <si>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Nama Kolom</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wajib diisi, panjang 16 karakter.
+Jika mitra tidak mempunyai NIK, BPS Kab/Kota dapat membuat NIK dummy untuk Mitra tersebut dengan format sebagai berikut:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPKK00DDMMYYXXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PP: kode provinsi
+KK: kode kabupaten
+00: karakter angka nol dua kali
+DD: tanggal upload data mitra
+MM: bulan upload data mitra
+YY: tahun upload data mitra
+XXXX: urutan mitra yang tidak mempunyai NIk yang diupload pada hari tersebut
+Misal mitra A tidak mempunyai NIK. Kemudian data mitra tersebut di upload oleh Operator BPS Kota Surakarta pada 9 Juli 2021. Mitra A tersebut adalah mitra ke delapan yang tidak mempunyai NIK yang diuplad pada hari itu, maka NIK dummy mitra A tersebut adalah </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3372000907210008</t>
+    </r>
+  </si>
+  <si>
+    <t>Status (1=Terpilih, 2=Tidak Terpilih)</t>
+  </si>
+  <si>
+    <t>(kosong) Belum Konfirmasi
+(1) Terpilih
+(2) TidakTerpilih</t>
+  </si>
+  <si>
+    <t>Alamat Kec</t>
+  </si>
+  <si>
+    <t>Kode Kecamatan untuk alamat (panjang=3)</t>
+  </si>
+  <si>
+    <t>Alamat Desa</t>
+  </si>
+  <si>
+    <t>Kode Desa untuk alamat (panjang=3)</t>
+  </si>
+  <si>
+    <t>Alamat lengkap</t>
+  </si>
+  <si>
+    <t>(1) Laki-laki
+(2) Perempuan</t>
+  </si>
+  <si>
+    <t>(1) Islam
+(2) Kristen
+(3) Katolik
+(4) Hindu
+(5) Budha
+(6) Konghucu
+(7) Lainnya</t>
+  </si>
+  <si>
+    <t>(1) Belum Kawin
+(2) Kawin
+(3) Cerai Hidup
+(4) Cerai Mati</t>
+  </si>
+  <si>
+    <t>(1) SD/Sederajat ke Bawah
+(2) Tamat SMP/Sederajat
+(3) Tamat SMS/Sederajat
+(4) Tamat D1/D2/D3
+(5) Tamat D4/S1
+(6) Tamat S2
+(7) Tamat S3</t>
+  </si>
+  <si>
+    <t>(1) Aparat Desa / Kelurahan
+(2) Kader PKK / Karang Taruna / Kader Lainnya
+(3) Pegawai / Guru Honorer
+(4) Mengurus Rumah Tangga
+(5) Wiraswasta
+(6) Pelajar / Mahasiswa
+(7) Lainnya</t>
+  </si>
+  <si>
+    <t>No Telp</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir (yyyy-mm-dd)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +201,22 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,11 +257,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -160,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +368,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,16 +612,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,94 +643,285 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>47547548754857</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -515,24 +929,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="61.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
